--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke\git\codegym-db\db\db-challenge2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCFF45-D256-4EF8-9FFC-FAC9357AA298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925"/>
+    <workbookView xWindow="-900" yWindow="645" windowWidth="16335" windowHeight="11250" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
+    <sheet name="users" sheetId="4" r:id="rId1"/>
+    <sheet name="chatrooms" sheetId="6" r:id="rId2"/>
+    <sheet name="posts" sheetId="8" r:id="rId3"/>
+    <sheet name="tasks" sheetId="7" r:id="rId4"/>
+    <sheet name="join_histories" sheetId="9" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="1" r:id="rId6"/>
+    <sheet name="記入例" sheetId="3" r:id="rId7"/>
+    <sheet name="テンプレート" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="139">
   <si>
     <t>改定履歴</t>
   </si>
@@ -579,12 +590,755 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>電話番号（勤務先）</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キンムサキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>電話番号（携帯電話）</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケイタイデンワ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="4">
+      <t>サクセイニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザーの情報を管理するテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hatrooms</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルームの情報を管理するテーブル</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルーム名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルーム概要</t>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ファイル送信許可フラグ</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ダイレクトチャット判定フラグ</t>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asks</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスクの情報を管理するテーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タスク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク期限</t>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タスク担当ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チャットルーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>osts</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルームに書き込まれた投稿の情報を管理するテーブル</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>投稿内容</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>添付ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投稿ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oin_histries</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チャットルームの参加履歴を管理するテーブル</t>
+    <rPh sb="8" eb="12">
+      <t>サンカリレキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チャットルーム参加履歴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="7" eb="11">
+      <t>サンカリレキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>参加日時</t>
+    <rPh sb="0" eb="4">
+      <t>サンカニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>参加ユーザーid</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>chatrooms</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>join_histries</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>柳澤悠介</t>
+    <rPh sb="0" eb="4">
+      <t>ヤナギサワユウスケ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>is_completed</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タスク完了済み</t>
+    </r>
+  </si>
+  <si>
+    <t>is_allow_send_file</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>is_chatroom_directchat</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>phone_number_work</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>phone_number_home</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>chatroom_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>chatroom_name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>chatroom_info</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ost_user_id</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>odified_user_id</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>daterime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>送信拒否</t>
+    </r>
+    <rPh sb="2" eb="6">
+      <t>ソウシンキョヒ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ダイレクトチャット</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>post_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>daterime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>modified_at</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>deadline_at</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>officer_user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート作成、リテラル記入</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>joined_at</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -661,6 +1415,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -688,7 +1448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -720,11 +1480,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -780,13 +1549,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -796,6 +1622,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -998,13 +1827,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB2A3D1-DBAA-4AB0-B638-8391FFA1BED2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="27"/>
+    <col min="2" max="2" width="3.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="27"/>
+    <col min="6" max="6" width="5.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="20">
+        <v>100</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="20">
+        <v>100</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="20">
+        <v>13</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="20">
+        <v>13</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C0F775-2075-41AD-BAAE-44631D885D9A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="27"/>
+    <col min="2" max="2" width="3.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="27"/>
+    <col min="6" max="6" width="5.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="20">
+        <v>100</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="21">
+        <v>11</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="20">
+        <v>11</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612455C1-7930-431D-A9E4-681DD36631B4}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="27"/>
+    <col min="2" max="2" width="3.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="27"/>
+    <col min="4" max="4" width="22" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="27"/>
+    <col min="6" max="6" width="5.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="20">
+        <v>100</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="21">
+        <v>11</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="21">
+        <v>11</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="21">
+        <v>11</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD52FFF-C507-4428-BE33-86EDC3E473C9}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="27"/>
+    <col min="2" max="2" width="3.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="27"/>
+    <col min="4" max="4" width="22" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="27"/>
+    <col min="6" max="6" width="5.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="20">
+        <v>11</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="21">
+        <v>11</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="20">
+        <v>11</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="21">
+        <v>11</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3B5BA-A4F6-4788-BEC3-D9C3E8318BF3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="27"/>
+    <col min="2" max="2" width="3.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="27"/>
+    <col min="6" max="6" width="5.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B8" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="20">
+        <v>11</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="20">
+        <v>11</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1016,9 +3826,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1113,10 +3923,18 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="29">
+        <v>44373</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1141,10 +3959,18 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="29">
+        <v>44373</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1169,10 +3995,18 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="29">
+        <v>44373</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1197,10 +4031,18 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="29">
+        <v>44373</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1225,10 +4067,18 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="29">
+        <v>44373</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -29875,8 +32725,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29884,7 +32734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29900,31 +32750,31 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -30174,8 +33024,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30183,7 +33033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30199,25 +33049,25 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
